--- a/sbtmwebport.xlsx
+++ b/sbtmwebport.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>메인 화면 (index.html)</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -197,6 +197,65 @@
   </si>
   <si>
     <t>rccar2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking 터렛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">여승원, 양서연, 이현림, 송민규, 윤원섭, 한승훈 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tracking 터렛은 카메라로 들어온 영상을 matlab을 통해 분석하여 특정 색상을 Tracking하고 그 물체에 레이저를 비추는 로봇입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>matlab의 최신 웹캠 모듈과 아두이노 모듈을 사용하여 제작하였습니다. 웹캠 모듈을 이용하여 로지텍 웹캠의 신호를 받아오고, 그 신호에서 주황색 색상을 가진 물체를 판별하여 그 물체가 카메라의 중앙에서 얼마나 떨어져 있는지를 측정하고, 물체가 카메라의 중앙에 오도록 로봇을 움직이는 원리입니다.</t>
+  </si>
+  <si>
+    <t>turret2.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turret1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정로봇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이성재, 김건우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 위 스위치를 누르면 상자가 열리며 팔이 나와 스위치를 끄는 로봇입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상자 위 스위치를 누르면 상자가 열리며 팔이 나와 스위치를 끄고 LED로 표정을 보여주는 로봇입니다. Atmega를 이용해 제작하였습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo1.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emo2.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +844,7 @@
   <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -922,8 +981,64 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2013</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
